--- a/SMO/TemplateExcel/Template_Export_SanLuong.xlsx
+++ b/SMO/TemplateExcel/Template_Export_SanLuong.xlsx
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,6 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,11 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,6 +720,27 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SMO/TemplateExcel/Template_Export_SanLuong.xlsx
+++ b/SMO/TemplateExcel/Template_Export_SanLuong.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB6F1A-040A-4A94-B003-E016516D79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Tên sân bay</t>
   </si>
@@ -76,9 +77,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Tổng năm(DP)</t>
   </si>
   <si>
     <t>Trung bình tháng</t>
@@ -141,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,21 +168,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -227,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,33 +238,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,12 +552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,28 +577,27 @@
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="15" width="17.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -602,18 +605,18 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -621,126 +624,121 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:18" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="11" t="s">
+      <c r="R8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -752,11 +750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,135 +770,147 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="15" t="s">
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
